--- a/Configs/PrestigeLevel.xlsx
+++ b/Configs/PrestigeLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F84FBB-D142-4490-B81A-5FC957C1D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9168F0-C058-4AB8-9C57-8FC759CFD822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1958" yWindow="2160" windowWidth="21600" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="3292" windowWidth="12660" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,34 +58,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{AA7D55D3-15F4-4630-AE0A-88CBD2262278}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Jimmy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-ID规范：
-5位
-9开头</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -161,19 +133,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宫廷御医</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一代名医</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -529,7 +501,7 @@
     <col min="5" max="5" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -571,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>90001</v>
       </c>
@@ -585,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>90002</v>
       </c>
@@ -593,13 +565,13 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>90003</v>
       </c>
@@ -607,41 +579,40 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>90004</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>90005</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4"/>
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Configs/PrestigeLevel.xlsx
+++ b/Configs/PrestigeLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9168F0-C058-4AB8-9C57-8FC759CFD822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3071C-E7CE-43E0-869E-9F743A831A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="3292" windowWidth="12660" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Configs/PrestigeLevel.xlsx
+++ b/Configs/PrestigeLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C3071C-E7CE-43E0-869E-9F743A831A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD64DE6-21FE-43AF-BCD3-1602E2B856F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2033" yWindow="2040" windowWidth="24622" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,11 +133,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4</t>
+    <t>4,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +489,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -568,7 +568,7 @@
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -582,7 +582,7 @@
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -590,13 +590,13 @@
         <v>90004</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>500</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -604,13 +604,13 @@
         <v>90005</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1000</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
